--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43974,6 +43974,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>14600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44009,6 +44009,41 @@
         <v>14600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>4100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44044,6 +44044,41 @@
         <v>4100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>40100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44079,6 +44079,41 @@
         <v>40100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>4400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44114,6 +44114,41 @@
         <v>4400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44149,6 +44149,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44186,6 +44186,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>5700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44221,6 +44221,41 @@
         <v>5700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>4200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44256,6 +44256,41 @@
         <v>4200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>4200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44291,6 +44291,41 @@
         <v>4200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44326,6 +44326,41 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44361,6 +44361,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44398,6 +44398,80 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44472,6 +44472,78 @@
         </is>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>3200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44544,6 +44544,41 @@
         <v>3200</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>27700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44579,6 +44579,43 @@
         <v>27700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44616,6 +44616,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44651,6 +44651,41 @@
         <v>3200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44686,6 +44686,78 @@
         <v>1900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I1238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44758,6 +44758,41 @@
         </is>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44793,6 +44793,41 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>33500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2225"/>
+  <dimension ref="A1:I2226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79303,6 +79303,43 @@
         <v>33500</v>
       </c>
     </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2226" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I2226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2226"/>
+  <dimension ref="A1:I2227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79340,6 +79340,41 @@
         </is>
       </c>
     </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2227" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>38600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2227"/>
+  <dimension ref="A1:I2228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79375,6 +79375,41 @@
         <v>38600</v>
       </c>
     </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2228" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I2228" t="n">
+        <v>30400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2228"/>
+  <dimension ref="A1:I2229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79410,6 +79410,41 @@
         <v>30400</v>
       </c>
     </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2229" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="I2229" t="n">
+        <v>20400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2229"/>
+  <dimension ref="A1:I2230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79445,6 +79445,41 @@
         <v>20400</v>
       </c>
     </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I2230" t="n">
+        <v>5600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2230"/>
+  <dimension ref="A1:I2231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79480,6 +79480,41 @@
         <v>5600</v>
       </c>
     </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2231" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2231"/>
+  <dimension ref="A1:I2232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79515,6 +79515,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2232" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="H2232" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I2232" t="n">
+        <v>7300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2232"/>
+  <dimension ref="A1:I2233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79550,6 +79550,43 @@
         <v>7300</v>
       </c>
     </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I2233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2233"/>
+  <dimension ref="A1:I2234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79587,6 +79587,41 @@
         </is>
       </c>
     </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2234" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>6300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2234"/>
+  <dimension ref="A1:I2235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79622,6 +79622,41 @@
         <v>6300</v>
       </c>
     </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2235" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I2235" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2235"/>
+  <dimension ref="A1:I2236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79657,6 +79657,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2236"/>
+  <dimension ref="A1:I2237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79692,6 +79692,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>6100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2237"/>
+  <dimension ref="A1:I2238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79727,6 +79727,41 @@
         <v>6100</v>
       </c>
     </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2238" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>38600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2238"/>
+  <dimension ref="A1:I2239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79762,6 +79762,41 @@
         <v>38600</v>
       </c>
     </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I2239" t="n">
+        <v>18600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2453.xlsx
+++ b/data/2453.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2239"/>
+  <dimension ref="A1:I2240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79797,6 +79797,41 @@
         <v>18600</v>
       </c>
     </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>KLUANG</t>
+        </is>
+      </c>
+      <c r="E2240" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I2240" t="n">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
